--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - GPS codes - 2016.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - GPS codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="212">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -649,7 +649,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:31:15</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:28:58</t>
   </si>
 </sst>
 </file>
@@ -3027,14 +3027,14 @@
       <c r="BR7" t="n" s="10">
         <v>120.3</v>
       </c>
-      <c r="BS7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU7" t="s" s="10">
-        <v>25</v>
+      <c r="BS7" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BT7" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="BU7" t="n" s="10">
+        <v>123.5</v>
       </c>
       <c r="BV7" t="s" s="10">
         <v>25</v>
@@ -3251,14 +3251,14 @@
       <c r="BR8" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BS8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU8" t="s" s="10">
-        <v>25</v>
+      <c r="BS8" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BT8" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BU8" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="BV8" t="s" s="10">
         <v>25</v>
@@ -3475,14 +3475,14 @@
       <c r="BR9" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BS9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU9" t="s" s="10">
-        <v>25</v>
+      <c r="BS9" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BT9" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BU9" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV9" t="s" s="10">
         <v>25</v>
@@ -3699,14 +3699,14 @@
       <c r="BR10" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU10" t="s" s="10">
-        <v>25</v>
+      <c r="BS10" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BT10" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU10" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="BV10" t="s" s="10">
         <v>25</v>
@@ -3923,14 +3923,14 @@
       <c r="BR11" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU11" t="s" s="10">
-        <v>25</v>
+      <c r="BS11" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT11" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BU11" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="BV11" t="s" s="10">
         <v>25</v>
@@ -4147,14 +4147,14 @@
       <c r="BR12" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BS12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU12" t="s" s="10">
-        <v>25</v>
+      <c r="BS12" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="BT12" t="n" s="10">
+        <v>122.5</v>
+      </c>
+      <c r="BU12" t="n" s="10">
+        <v>123.5</v>
       </c>
       <c r="BV12" t="s" s="10">
         <v>25</v>
@@ -4371,14 +4371,14 @@
       <c r="BR13" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BS13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU13" t="s" s="10">
-        <v>25</v>
+      <c r="BS13" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BT13" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BU13" t="n" s="10">
+        <v>115.5</v>
       </c>
       <c r="BV13" t="s" s="10">
         <v>25</v>
@@ -4595,14 +4595,14 @@
       <c r="BR14" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BS14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU14" t="s" s="10">
-        <v>25</v>
+      <c r="BS14" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BT14" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BU14" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="BV14" t="s" s="10">
         <v>25</v>
@@ -4819,14 +4819,14 @@
       <c r="BR15" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BS15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU15" t="s" s="10">
-        <v>25</v>
+      <c r="BS15" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT15" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="BU15" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="BV15" t="s" s="10">
         <v>25</v>
@@ -5043,14 +5043,14 @@
       <c r="BR16" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="BS16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU16" t="s" s="10">
-        <v>25</v>
+      <c r="BS16" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="BT16" t="n" s="10">
+        <v>123.0</v>
+      </c>
+      <c r="BU16" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="BV16" t="s" s="10">
         <v>25</v>
@@ -5267,14 +5267,14 @@
       <c r="BR17" t="n" s="10">
         <v>122.1</v>
       </c>
-      <c r="BS17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU17" t="s" s="10">
-        <v>25</v>
+      <c r="BS17" t="n" s="10">
+        <v>131.9</v>
+      </c>
+      <c r="BT17" t="n" s="10">
+        <v>147.9</v>
+      </c>
+      <c r="BU17" t="n" s="10">
+        <v>149.7</v>
       </c>
       <c r="BV17" t="s" s="10">
         <v>25</v>
@@ -5491,14 +5491,14 @@
       <c r="BR18" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BS18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU18" t="s" s="10">
-        <v>25</v>
+      <c r="BS18" t="n" s="10">
+        <v>123.3</v>
+      </c>
+      <c r="BT18" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="BU18" t="n" s="10">
+        <v>151.5</v>
       </c>
       <c r="BV18" t="s" s="10">
         <v>25</v>
@@ -5715,14 +5715,14 @@
       <c r="BR19" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="BS19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU19" t="s" s="10">
-        <v>25</v>
+      <c r="BS19" t="n" s="10">
+        <v>130.2</v>
+      </c>
+      <c r="BT19" t="n" s="10">
+        <v>130.3</v>
+      </c>
+      <c r="BU19" t="n" s="10">
+        <v>130.1</v>
       </c>
       <c r="BV19" t="s" s="10">
         <v>25</v>
@@ -5939,14 +5939,14 @@
       <c r="BR20" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BS20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU20" t="s" s="10">
-        <v>25</v>
+      <c r="BS20" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BT20" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU20" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="BV20" t="s" s="10">
         <v>25</v>
@@ -6163,14 +6163,14 @@
       <c r="BR21" t="n" s="10">
         <v>112.3</v>
       </c>
-      <c r="BS21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU21" t="s" s="10">
-        <v>25</v>
+      <c r="BS21" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="BT21" t="n" s="10">
+        <v>113.6</v>
+      </c>
+      <c r="BU21" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="BV21" t="s" s="10">
         <v>25</v>
@@ -6387,14 +6387,14 @@
       <c r="BR22" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BS22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU22" t="s" s="10">
-        <v>25</v>
+      <c r="BS22" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BT22" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BU22" t="n" s="10">
+        <v>112.5</v>
       </c>
       <c r="BV22" t="s" s="10">
         <v>25</v>
@@ -6611,14 +6611,14 @@
       <c r="BR23" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BS23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU23" t="s" s="10">
-        <v>25</v>
+      <c r="BS23" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BT23" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BU23" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="BV23" t="s" s="10">
         <v>25</v>
@@ -6835,14 +6835,14 @@
       <c r="BR24" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BS24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU24" t="s" s="10">
-        <v>25</v>
+      <c r="BS24" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BT24" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BU24" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="BV24" t="s" s="10">
         <v>25</v>
@@ -7059,14 +7059,14 @@
       <c r="BR25" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BS25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU25" t="s" s="10">
-        <v>25</v>
+      <c r="BS25" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BT25" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BU25" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="BV25" t="s" s="10">
         <v>25</v>
@@ -7283,14 +7283,14 @@
       <c r="BR26" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="BS26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU26" t="s" s="10">
-        <v>25</v>
+      <c r="BS26" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BT26" t="n" s="10">
+        <v>127.9</v>
+      </c>
+      <c r="BU26" t="n" s="10">
+        <v>130.3</v>
       </c>
       <c r="BV26" t="s" s="10">
         <v>25</v>
@@ -7507,14 +7507,14 @@
       <c r="BR27" t="n" s="10">
         <v>125.6</v>
       </c>
-      <c r="BS27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU27" t="s" s="10">
-        <v>25</v>
+      <c r="BS27" t="n" s="10">
+        <v>131.4</v>
+      </c>
+      <c r="BT27" t="n" s="10">
+        <v>154.0</v>
+      </c>
+      <c r="BU27" t="n" s="10">
+        <v>149.5</v>
       </c>
       <c r="BV27" t="s" s="10">
         <v>25</v>
@@ -7731,14 +7731,14 @@
       <c r="BR28" t="n" s="10">
         <v>103.3</v>
       </c>
-      <c r="BS28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU28" t="s" s="10">
-        <v>25</v>
+      <c r="BS28" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="BT28" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="BU28" t="n" s="10">
+        <v>107.6</v>
       </c>
       <c r="BV28" t="s" s="10">
         <v>25</v>
@@ -7955,14 +7955,14 @@
       <c r="BR29" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BS29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU29" t="s" s="10">
-        <v>25</v>
+      <c r="BS29" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="BT29" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="BU29" t="n" s="10">
+        <v>107.6</v>
       </c>
       <c r="BV29" t="s" s="10">
         <v>25</v>
@@ -8179,14 +8179,14 @@
       <c r="BR30" t="n" s="10">
         <v>122.2</v>
       </c>
-      <c r="BS30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU30" t="s" s="10">
-        <v>25</v>
+      <c r="BS30" t="n" s="10">
+        <v>122.0</v>
+      </c>
+      <c r="BT30" t="n" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="BU30" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="BV30" t="s" s="10">
         <v>25</v>
@@ -8403,14 +8403,14 @@
       <c r="BR31" t="n" s="10">
         <v>142.7</v>
       </c>
-      <c r="BS31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU31" t="s" s="10">
-        <v>25</v>
+      <c r="BS31" t="n" s="10">
+        <v>145.3</v>
+      </c>
+      <c r="BT31" t="n" s="10">
+        <v>147.7</v>
+      </c>
+      <c r="BU31" t="n" s="10">
+        <v>148.6</v>
       </c>
       <c r="BV31" t="s" s="10">
         <v>25</v>
@@ -8627,14 +8627,14 @@
       <c r="BR32" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="BS32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU32" t="s" s="10">
-        <v>25</v>
+      <c r="BS32" t="n" s="10">
+        <v>125.3</v>
+      </c>
+      <c r="BT32" t="n" s="10">
+        <v>128.2</v>
+      </c>
+      <c r="BU32" t="n" s="10">
+        <v>128.8</v>
       </c>
       <c r="BV32" t="s" s="10">
         <v>25</v>
@@ -8851,14 +8851,14 @@
       <c r="BR33" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BS33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU33" t="s" s="10">
-        <v>25</v>
+      <c r="BS33" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BT33" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BU33" t="n" s="10">
+        <v>108.9</v>
       </c>
       <c r="BV33" t="s" s="10">
         <v>25</v>
@@ -9075,14 +9075,14 @@
       <c r="BR34" t="n" s="10">
         <v>105.4</v>
       </c>
-      <c r="BS34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU34" t="s" s="10">
-        <v>25</v>
+      <c r="BS34" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="BT34" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="BU34" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="BV34" t="s" s="10">
         <v>25</v>
@@ -9299,14 +9299,14 @@
       <c r="BR35" t="n" s="10">
         <v>105.4</v>
       </c>
-      <c r="BS35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU35" t="s" s="10">
-        <v>25</v>
+      <c r="BS35" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BT35" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BU35" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="BV35" t="s" s="10">
         <v>25</v>
@@ -9523,14 +9523,14 @@
       <c r="BR36" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="BS36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU36" t="s" s="10">
-        <v>25</v>
+      <c r="BS36" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="BT36" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BU36" t="n" s="10">
+        <v>108.7</v>
       </c>
       <c r="BV36" t="s" s="10">
         <v>25</v>
@@ -9747,14 +9747,14 @@
       <c r="BR37" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU37" t="s" s="10">
-        <v>25</v>
+      <c r="BS37" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT37" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="BU37" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="BV37" t="s" s="10">
         <v>25</v>
@@ -9971,14 +9971,14 @@
       <c r="BR38" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU38" t="s" s="10">
-        <v>25</v>
+      <c r="BS38" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT38" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="BU38" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="BV38" t="s" s="10">
         <v>25</v>
@@ -10195,14 +10195,14 @@
       <c r="BR39" t="n" s="10">
         <v>109.7</v>
       </c>
-      <c r="BS39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU39" t="s" s="10">
-        <v>25</v>
+      <c r="BS39" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT39" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BU39" t="n" s="10">
+        <v>110.7</v>
       </c>
       <c r="BV39" t="s" s="10">
         <v>25</v>
@@ -10419,14 +10419,14 @@
       <c r="BR40" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BS40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU40" t="s" s="10">
-        <v>25</v>
+      <c r="BS40" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BT40" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BU40" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="BV40" t="s" s="10">
         <v>25</v>
@@ -10643,14 +10643,14 @@
       <c r="BR41" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="BS41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU41" t="s" s="10">
-        <v>25</v>
+      <c r="BS41" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BT41" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BU41" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="BV41" t="s" s="10">
         <v>25</v>
@@ -10867,14 +10867,14 @@
       <c r="BR42" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU42" t="s" s="10">
-        <v>25</v>
+      <c r="BS42" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="BT42" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU42" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="BV42" t="s" s="10">
         <v>25</v>
@@ -11091,14 +11091,14 @@
       <c r="BR43" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="BS43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU43" t="s" s="10">
-        <v>25</v>
+      <c r="BS43" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BT43" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BU43" t="n" s="10">
+        <v>110.8</v>
       </c>
       <c r="BV43" t="s" s="10">
         <v>25</v>
@@ -11315,14 +11315,14 @@
       <c r="BR44" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="BS44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU44" t="s" s="10">
-        <v>25</v>
+      <c r="BS44" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BT44" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU44" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="BV44" t="s" s="10">
         <v>25</v>
@@ -11539,14 +11539,14 @@
       <c r="BR45" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BS45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU45" t="s" s="10">
-        <v>25</v>
+      <c r="BS45" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BT45" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BU45" t="n" s="10">
+        <v>111.4</v>
       </c>
       <c r="BV45" t="s" s="10">
         <v>25</v>
@@ -11763,14 +11763,14 @@
       <c r="BR46" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="BS46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU46" t="s" s="10">
-        <v>25</v>
+      <c r="BS46" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BT46" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BU46" t="n" s="10">
+        <v>113.5</v>
       </c>
       <c r="BV46" t="s" s="10">
         <v>25</v>
@@ -11987,14 +11987,14 @@
       <c r="BR47" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BS47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU47" t="s" s="10">
-        <v>25</v>
+      <c r="BS47" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BT47" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BU47" t="n" s="10">
+        <v>111.6</v>
       </c>
       <c r="BV47" t="s" s="10">
         <v>25</v>
@@ -12211,14 +12211,14 @@
       <c r="BR48" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BS48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU48" t="s" s="10">
-        <v>25</v>
+      <c r="BS48" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BT48" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BU48" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="BV48" t="s" s="10">
         <v>25</v>
@@ -12435,14 +12435,14 @@
       <c r="BR49" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="BS49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU49" t="s" s="10">
-        <v>25</v>
+      <c r="BS49" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BT49" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="BU49" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="BV49" t="s" s="10">
         <v>25</v>
@@ -12659,14 +12659,14 @@
       <c r="BR50" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="BS50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU50" t="s" s="10">
-        <v>25</v>
+      <c r="BS50" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT50" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BU50" t="n" s="10">
+        <v>116.2</v>
       </c>
       <c r="BV50" t="s" s="10">
         <v>25</v>
@@ -12883,14 +12883,14 @@
       <c r="BR51" t="n" s="10">
         <v>106.7</v>
       </c>
-      <c r="BS51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU51" t="s" s="10">
-        <v>25</v>
+      <c r="BS51" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="BT51" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BU51" t="n" s="10">
+        <v>107.9</v>
       </c>
       <c r="BV51" t="s" s="10">
         <v>25</v>
@@ -13107,14 +13107,14 @@
       <c r="BR52" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU52" t="s" s="10">
-        <v>25</v>
+      <c r="BS52" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="BT52" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BU52" t="n" s="10">
+        <v>107.9</v>
       </c>
       <c r="BV52" t="s" s="10">
         <v>25</v>
@@ -13331,14 +13331,14 @@
       <c r="BR53" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BS53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU53" t="s" s="10">
-        <v>25</v>
+      <c r="BS53" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BT53" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BU53" t="n" s="10">
+        <v>107.9</v>
       </c>
       <c r="BV53" t="s" s="10">
         <v>25</v>
@@ -13555,14 +13555,14 @@
       <c r="BR54" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="BS54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU54" t="s" s="10">
-        <v>25</v>
+      <c r="BS54" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BT54" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU54" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="BV54" t="s" s="10">
         <v>25</v>
@@ -13779,14 +13779,14 @@
       <c r="BR55" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BS55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU55" t="s" s="10">
-        <v>25</v>
+      <c r="BS55" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT55" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BU55" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="BV55" t="s" s="10">
         <v>25</v>
@@ -14003,14 +14003,14 @@
       <c r="BR56" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BS56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU56" t="s" s="10">
-        <v>25</v>
+      <c r="BS56" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BT56" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU56" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="BV56" t="s" s="10">
         <v>25</v>
@@ -14227,14 +14227,14 @@
       <c r="BR57" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BS57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU57" t="s" s="10">
-        <v>25</v>
+      <c r="BS57" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BT57" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BU57" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="BV57" t="s" s="10">
         <v>25</v>
@@ -14451,14 +14451,14 @@
       <c r="BR58" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BS58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU58" t="s" s="10">
-        <v>25</v>
+      <c r="BS58" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BT58" t="n" s="10">
+        <v>113.6</v>
+      </c>
+      <c r="BU58" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="BV58" t="s" s="10">
         <v>25</v>
@@ -14675,14 +14675,14 @@
       <c r="BR59" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="BS59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU59" t="s" s="10">
-        <v>25</v>
+      <c r="BS59" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BT59" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BU59" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="BV59" t="s" s="10">
         <v>25</v>
@@ -14899,14 +14899,14 @@
       <c r="BR60" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="BS60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU60" t="s" s="10">
-        <v>25</v>
+      <c r="BS60" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BT60" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BU60" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="BV60" t="s" s="10">
         <v>25</v>
@@ -15123,14 +15123,14 @@
       <c r="BR61" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BS61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU61" t="s" s="10">
-        <v>25</v>
+      <c r="BS61" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BT61" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BU61" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="BV61" t="s" s="10">
         <v>25</v>
@@ -15347,14 +15347,14 @@
       <c r="BR62" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU62" t="s" s="10">
-        <v>25</v>
+      <c r="BS62" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BT62" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU62" t="n" s="10">
+        <v>110.0</v>
       </c>
       <c r="BV62" t="s" s="10">
         <v>25</v>
@@ -15571,14 +15571,14 @@
       <c r="BR63" t="n" s="10">
         <v>104.5</v>
       </c>
-      <c r="BS63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU63" t="s" s="10">
-        <v>25</v>
+      <c r="BS63" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BT63" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU63" t="n" s="10">
+        <v>105.6</v>
       </c>
       <c r="BV63" t="s" s="10">
         <v>25</v>
@@ -15795,14 +15795,14 @@
       <c r="BR64" t="n" s="10">
         <v>115.3</v>
       </c>
-      <c r="BS64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU64" t="s" s="10">
-        <v>25</v>
+      <c r="BS64" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BT64" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BU64" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="BV64" t="s" s="10">
         <v>25</v>
@@ -16019,14 +16019,14 @@
       <c r="BR65" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU65" t="s" s="10">
-        <v>25</v>
+      <c r="BS65" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT65" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU65" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="BV65" t="s" s="10">
         <v>25</v>
@@ -16243,14 +16243,14 @@
       <c r="BR66" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BS66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU66" t="s" s="10">
-        <v>25</v>
+      <c r="BS66" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT66" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BU66" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="BV66" t="s" s="10">
         <v>25</v>
@@ -16467,14 +16467,14 @@
       <c r="BR67" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BS67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU67" t="s" s="10">
-        <v>25</v>
+      <c r="BS67" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BT67" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BU67" t="n" s="10">
+        <v>115.5</v>
       </c>
       <c r="BV67" t="s" s="10">
         <v>25</v>
@@ -16691,14 +16691,14 @@
       <c r="BR68" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BS68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU68" t="s" s="10">
-        <v>25</v>
+      <c r="BS68" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BT68" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BU68" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="BV68" t="s" s="10">
         <v>25</v>
@@ -16915,14 +16915,14 @@
       <c r="BR69" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BS69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU69" t="s" s="10">
-        <v>25</v>
+      <c r="BS69" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT69" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BU69" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="BV69" t="s" s="10">
         <v>25</v>
@@ -17139,14 +17139,14 @@
       <c r="BR70" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="BS70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU70" t="s" s="10">
-        <v>25</v>
+      <c r="BS70" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT70" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BU70" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="BV70" t="s" s="10">
         <v>25</v>
@@ -17363,14 +17363,14 @@
       <c r="BR71" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BS71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU71" t="s" s="10">
-        <v>25</v>
+      <c r="BS71" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BT71" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BU71" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="BV71" t="s" s="10">
         <v>25</v>
@@ -17587,14 +17587,14 @@
       <c r="BR72" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="BS72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU72" t="s" s="10">
-        <v>25</v>
+      <c r="BS72" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BT72" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BU72" t="n" s="10">
+        <v>113.8</v>
       </c>
       <c r="BV72" t="s" s="10">
         <v>25</v>
@@ -17811,14 +17811,14 @@
       <c r="BR73" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BS73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU73" t="s" s="10">
-        <v>25</v>
+      <c r="BS73" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="BT73" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BU73" t="n" s="10">
+        <v>117.7</v>
       </c>
       <c r="BV73" t="s" s="10">
         <v>25</v>
@@ -18035,14 +18035,14 @@
       <c r="BR74" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BS74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU74" t="s" s="10">
-        <v>25</v>
+      <c r="BS74" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BT74" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="BU74" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="BV74" t="s" s="10">
         <v>25</v>
@@ -18259,14 +18259,14 @@
       <c r="BR75" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU75" t="s" s="10">
-        <v>25</v>
+      <c r="BS75" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BT75" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BU75" t="n" s="10">
+        <v>108.1</v>
       </c>
       <c r="BV75" t="s" s="10">
         <v>25</v>
@@ -18483,14 +18483,14 @@
       <c r="BR76" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="BS76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU76" t="s" s="10">
-        <v>25</v>
+      <c r="BS76" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT76" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BU76" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="BV76" t="s" s="10">
         <v>25</v>
@@ -18707,14 +18707,14 @@
       <c r="BR77" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="BS77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU77" t="s" s="10">
-        <v>25</v>
+      <c r="BS77" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT77" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BU77" t="n" s="10">
+        <v>109.8</v>
       </c>
       <c r="BV77" t="s" s="10">
         <v>25</v>
@@ -18931,14 +18931,14 @@
       <c r="BR78" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BS78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU78" t="s" s="10">
-        <v>25</v>
+      <c r="BS78" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BT78" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU78" t="n" s="10">
+        <v>111.9</v>
       </c>
       <c r="BV78" t="s" s="10">
         <v>25</v>
@@ -19155,14 +19155,14 @@
       <c r="BR79" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BS79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU79" t="s" s="10">
-        <v>25</v>
+      <c r="BS79" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BT79" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BU79" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="BV79" t="s" s="10">
         <v>25</v>
@@ -19379,14 +19379,14 @@
       <c r="BR80" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BS80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU80" t="s" s="10">
-        <v>25</v>
+      <c r="BS80" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BT80" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BU80" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV80" t="s" s="10">
         <v>25</v>
@@ -19603,14 +19603,14 @@
       <c r="BR81" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="BS81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU81" t="s" s="10">
-        <v>25</v>
+      <c r="BS81" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BT81" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BU81" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="BV81" t="s" s="10">
         <v>25</v>
@@ -19827,14 +19827,14 @@
       <c r="BR82" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BS82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU82" t="s" s="10">
-        <v>25</v>
+      <c r="BS82" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT82" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BU82" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="BV82" t="s" s="10">
         <v>25</v>
@@ -20051,14 +20051,14 @@
       <c r="BR83" t="n" s="10">
         <v>109.7</v>
       </c>
-      <c r="BS83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU83" t="s" s="10">
-        <v>25</v>
+      <c r="BS83" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT83" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BU83" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV83" t="s" s="10">
         <v>25</v>
@@ -20275,14 +20275,14 @@
       <c r="BR84" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU84" t="s" s="10">
-        <v>25</v>
+      <c r="BS84" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BT84" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU84" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV84" t="s" s="10">
         <v>25</v>
@@ -20499,14 +20499,14 @@
       <c r="BR85" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="BS85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU85" t="s" s="10">
-        <v>25</v>
+      <c r="BS85" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BT85" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="BU85" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="BV85" t="s" s="10">
         <v>25</v>
@@ -20723,14 +20723,14 @@
       <c r="BR86" t="n" s="10">
         <v>106.7</v>
       </c>
-      <c r="BS86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU86" t="s" s="10">
-        <v>25</v>
+      <c r="BS86" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BT86" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="BU86" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="BV86" t="s" s="10">
         <v>25</v>
@@ -20947,14 +20947,14 @@
       <c r="BR87" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="BS87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU87" t="s" s="10">
-        <v>25</v>
+      <c r="BS87" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BT87" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BU87" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="BV87" t="s" s="10">
         <v>25</v>
@@ -21171,14 +21171,14 @@
       <c r="BR88" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BS88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU88" t="s" s="10">
-        <v>25</v>
+      <c r="BS88" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BT88" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BU88" t="n" s="10">
+        <v>108.4</v>
       </c>
       <c r="BV88" t="s" s="10">
         <v>25</v>
@@ -21395,14 +21395,14 @@
       <c r="BR89" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BS89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU89" t="s" s="10">
-        <v>25</v>
+      <c r="BS89" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT89" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BU89" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="BV89" t="s" s="10">
         <v>25</v>
@@ -21619,14 +21619,14 @@
       <c r="BR90" t="n" s="10">
         <v>107.0</v>
       </c>
-      <c r="BS90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU90" t="s" s="10">
-        <v>25</v>
+      <c r="BS90" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT90" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BU90" t="n" s="10">
+        <v>108.7</v>
       </c>
       <c r="BV90" t="s" s="10">
         <v>25</v>
@@ -21843,14 +21843,14 @@
       <c r="BR91" t="n" s="10">
         <v>105.2</v>
       </c>
-      <c r="BS91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU91" t="s" s="10">
-        <v>25</v>
+      <c r="BS91" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BT91" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BU91" t="n" s="10">
+        <v>105.6</v>
       </c>
       <c r="BV91" t="s" s="10">
         <v>25</v>
@@ -22067,14 +22067,14 @@
       <c r="BR92" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BS92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU92" t="s" s="10">
-        <v>25</v>
+      <c r="BS92" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BT92" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BU92" t="n" s="10">
+        <v>109.0</v>
       </c>
       <c r="BV92" t="s" s="10">
         <v>25</v>
@@ -22291,14 +22291,14 @@
       <c r="BR93" t="n" s="10">
         <v>122.7</v>
       </c>
-      <c r="BS93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU93" t="s" s="10">
-        <v>25</v>
+      <c r="BS93" t="n" s="10">
+        <v>133.8</v>
+      </c>
+      <c r="BT93" t="n" s="10">
+        <v>150.4</v>
+      </c>
+      <c r="BU93" t="n" s="10">
+        <v>151.6</v>
       </c>
       <c r="BV93" t="s" s="10">
         <v>25</v>
@@ -22515,14 +22515,14 @@
       <c r="BR94" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="BS94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU94" t="s" s="10">
-        <v>25</v>
+      <c r="BS94" t="n" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="BT94" t="n" s="10">
+        <v>155.9</v>
+      </c>
+      <c r="BU94" t="n" s="10">
+        <v>157.1</v>
       </c>
       <c r="BV94" t="s" s="10">
         <v>25</v>
@@ -22739,14 +22739,14 @@
       <c r="BR95" t="n" s="10">
         <v>137.5</v>
       </c>
-      <c r="BS95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU95" t="s" s="10">
-        <v>25</v>
+      <c r="BS95" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="BT95" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="BU95" t="n" s="10">
+        <v>137.5</v>
       </c>
       <c r="BV95" t="s" s="10">
         <v>25</v>
@@ -22963,14 +22963,14 @@
       <c r="BR96" t="n" s="10">
         <v>144.3</v>
       </c>
-      <c r="BS96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU96" t="s" s="10">
-        <v>25</v>
+      <c r="BS96" t="n" s="10">
+        <v>161.2</v>
+      </c>
+      <c r="BT96" t="n" s="10">
+        <v>181.6</v>
+      </c>
+      <c r="BU96" t="n" s="10">
+        <v>179.3</v>
       </c>
       <c r="BV96" t="s" s="10">
         <v>25</v>
@@ -23187,14 +23187,14 @@
       <c r="BR97" t="n" s="10">
         <v>120.3</v>
       </c>
-      <c r="BS97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU97" t="s" s="10">
-        <v>25</v>
+      <c r="BS97" t="n" s="10">
+        <v>133.9</v>
+      </c>
+      <c r="BT97" t="n" s="10">
+        <v>176.4</v>
+      </c>
+      <c r="BU97" t="n" s="10">
+        <v>179.7</v>
       </c>
       <c r="BV97" t="s" s="10">
         <v>25</v>
@@ -23411,14 +23411,14 @@
       <c r="BR98" t="n" s="10">
         <v>149.9</v>
       </c>
-      <c r="BS98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU98" t="s" s="10">
-        <v>25</v>
+      <c r="BS98" t="n" s="10">
+        <v>180.0</v>
+      </c>
+      <c r="BT98" t="n" s="10">
+        <v>249.2</v>
+      </c>
+      <c r="BU98" t="n" s="10">
+        <v>278.9</v>
       </c>
       <c r="BV98" t="s" s="10">
         <v>25</v>
@@ -23635,14 +23635,14 @@
       <c r="BR99" t="n" s="10">
         <v>142.0</v>
       </c>
-      <c r="BS99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU99" t="s" s="10">
-        <v>25</v>
+      <c r="BS99" t="n" s="10">
+        <v>180.5</v>
+      </c>
+      <c r="BT99" t="n" s="10">
+        <v>245.4</v>
+      </c>
+      <c r="BU99" t="n" s="10">
+        <v>259.4</v>
       </c>
       <c r="BV99" t="s" s="10">
         <v>25</v>
@@ -23674,7 +23674,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:31:22&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:29:08&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>